--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2841123.776493275</v>
+        <v>2839236.194976875</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>82.86725691228301</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.1960097880556</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>23.3289799064248</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>313.3643639515873</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>127.990722067552</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>75.93999108643294</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>60.46179076613138</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586851</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1407479991916</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74161902837862</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>6.348656829617831</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>161.8175117958947</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056516</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>206.8064269214858</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>181.6292254718848</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065121</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.75862782376858</v>
       </c>
       <c r="S25" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.1291651532048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>58.4267016389885</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>78.22041541355044</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571483</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789328967</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463105</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>516.7818851491245</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>158.516186542374</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>158.516186542374</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>151.5706857931705</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6472817317614</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371767</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>770.1842990371767</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>384.3960464389325</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4577,40 +4577,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017522</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2636.076575092838</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661917</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433114</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.156885434021</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5206,16 +5206,16 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1319.415289313285</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1030.286650526843</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>775.6021623209559</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W13" t="n">
-        <v>486.1849922839954</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="X13" t="n">
-        <v>486.1849922839954</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404652</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,49 +5276,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>159.1396882805848</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>570.0299571250974</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,31 +5452,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765188</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706319</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336713</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018334</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>157.6003821033661</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>157.6003821033661</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1460.776242453086</v>
       </c>
       <c r="S25" t="n">
-        <v>1379.229518531122</v>
+        <v>1460.776242453086</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531122</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V25" t="n">
-        <v>835.4163915387938</v>
+        <v>982.3063390367043</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765183</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706313</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706313</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>303.408167372614</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163789</v>
+        <v>439.5324299542169</v>
       </c>
       <c r="C31" t="n">
-        <v>604.5641438163789</v>
+        <v>326.3571123076807</v>
       </c>
       <c r="D31" t="n">
-        <v>510.208369685414</v>
+        <v>232.0013381767156</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430014</v>
+        <v>232.0013381767156</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>232.0013381767156</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>232.0013381767156</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818942</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652477</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652477</v>
+        <v>565.420029503086</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6725,10 +6725,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6938,16 +6938,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>452.0983189327497</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>698.8634468392138</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7078,34 +7078,34 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>921.5583256030199</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7333,16 +7333,16 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229671</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.872441903933</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>20.63789864135489</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,16 +9243,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>414.5002179180844</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,19 +9960,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10440,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929762</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>80.50021372615237</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305233</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8059420300106</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.1743415069732</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>124.4198406026826</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>82.3938331833856</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>79.43092547709159</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>44.08042991715232</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>50.63978772762253</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>72.20572458002421</v>
       </c>
       <c r="S25" t="n">
-        <v>79.43092547709125</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>23.93099889297639</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.45548819889</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.80400437902353</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>15.49015632542871</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.521272659185342e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.771116669464391e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776764.5424193958</v>
+        <v>776764.5424193956</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="G2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="K2" t="n">
-        <v>630574.3128851685</v>
+        <v>630574.3128851684</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086678</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26430,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.66962143911</v>
@@ -26439,22 +26439,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563566</v>
+        <v>33210.2921356356</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,16 +26482,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-193294.5438843567</v>
+        <v>-193294.5438843569</v>
       </c>
       <c r="C6" t="n">
-        <v>396673.3353301873</v>
+        <v>396673.3353301876</v>
       </c>
       <c r="D6" t="n">
-        <v>396673.3353301875</v>
+        <v>396673.3353301877</v>
       </c>
       <c r="E6" t="n">
-        <v>-26097.98945360321</v>
+        <v>-26195.4485795756</v>
       </c>
       <c r="F6" t="n">
-        <v>499062.047023293</v>
+        <v>498964.5878973207</v>
       </c>
       <c r="G6" t="n">
-        <v>499062.0470232926</v>
+        <v>498964.5878973209</v>
       </c>
       <c r="H6" t="n">
-        <v>499062.0470232926</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="I6" t="n">
-        <v>499062.0470232927</v>
+        <v>498964.5878973206</v>
       </c>
       <c r="J6" t="n">
-        <v>322638.8278307</v>
+        <v>322541.3687047279</v>
       </c>
       <c r="K6" t="n">
-        <v>456573.2069164644</v>
+        <v>456554.71317853</v>
       </c>
       <c r="L6" t="n">
-        <v>490784.9021611676</v>
+        <v>490784.9021611683</v>
       </c>
       <c r="M6" t="n">
-        <v>366326.7937281973</v>
+        <v>366326.793728198</v>
       </c>
       <c r="N6" t="n">
-        <v>501127.8089620345</v>
+        <v>501127.8089620352</v>
       </c>
       <c r="O6" t="n">
-        <v>501127.8089620351</v>
+        <v>501127.8089620353</v>
       </c>
       <c r="P6" t="n">
-        <v>456965.2036591892</v>
+        <v>456965.2036591897</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,10 +26750,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.551376890017788e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0555158520741</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>158.0449589293574</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>201.7061255516595</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>93.5116817901241</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>20.62475095066037</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693568</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>306.7938505770476</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>113.9539220428402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831824</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.99689532463643</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890071</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>62.54807759626155</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>747.6947913160973</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,19 +36680,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
         <v>570.6060255109123</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37160,13 +37160,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809155</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>390.9245907766187</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795902</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
